--- a/biology/Médecine/L'Éveil_(film)/L'Éveil_(film).xlsx
+++ b/biology/Médecine/L'Éveil_(film)/L'Éveil_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89veil_(film)</t>
+          <t>L'Éveil_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Éveil (Awakenings) est un film américain réalisé par Penny Marshall et sorti en 1990.
 Il s'agit de l'adaptation des mémoires L'Éveil (Awakenings, 1973) d'Oliver Sacks, qui s'inspire d'une histoire vraie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89veil_(film)</t>
+          <t>L'Éveil_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Malcolm Sayer, jeune médecin n'ayant fait jusque-là que de la recherche, rejoint la clinique psychiatrique de Bainbridge. 
 Celle-ci  garde, plutôt qu'elle ne soigne, des malades chroniques, dont un certain nombre sont atteints de séquelles d'encéphalite léthargique et depuis des années, dans un état cataleptique.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%89veil_(film)</t>
+          <t>L'Éveil_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Awakenings
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%89veil_(film)</t>
+          <t>L'Éveil_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robin Williams (VF : Michel Papineschi) : Dr Malcolm Sayer
 Robert De Niro (VF : Jacques Frantz) : Leonard Lowe
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27%C3%89veil_(film)</t>
+          <t>L'Éveil_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,10 +666,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tournage
-Le tournage commence le 16 octobre 1989, dans le centre psychiatrique de Kingsboro (Kingsboro Psychiatric Center), dans le quartier de Brooklyn, et prend fin le 16 février 1990. Selon Robin Williams, le centre étant toujours exploité, les patients actuels font partie des figurants [1]. En outre, quelques scènes sont filmées dans le jardin botanique de New York, à l'école de Julia Richman (en) et dans le quartier Park Slope[2]
-Musique
-La musique du film est composée par Randy Newman. L'album de la bande originale est sorti en 1991 sur le label Reprise Records[3] :
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence le 16 octobre 1989, dans le centre psychiatrique de Kingsboro (Kingsboro Psychiatric Center), dans le quartier de Brooklyn, et prend fin le 16 février 1990. Selon Robin Williams, le centre étant toujours exploité, les patients actuels font partie des figurants . En outre, quelques scènes sont filmées dans le jardin botanique de New York, à l'école de Julia Richman (en) et dans le quartier Park Slope
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Éveil_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%89veil_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La musique du film est composée par Randy Newman. L'album de la bande originale est sorti en 1991 sur le label Reprise Records :
 Liste des titres
 Leonard
 Dr. Sayer
@@ -667,7 +725,7 @@
 Dexter's Tune (piano par Randy Newman)
 The Reality Of Miracle
 End Title
-On peut également entendre des chansons non originales dans le film[4] :
+On peut également entendre des chansons non originales dans le film :
 I'm Always Chasing Rainbows, composé par Harry Carroll et Joseph McCarthy
 O Soave Fanciulla, de l’opéra La Bohème de Puccini, interprété par Mirella Freni et Nicolaï Gedda
 Purple Haze, interprété par Jimi Hendrix
@@ -678,40 +736,79 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27%C3%89veil_(film)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Éveil_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27%C3%89veil_(film)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompense
-New York Film Critics Circle Awards 1990 : meilleur acteur pour Robert De Niro[5]
-Nominations
-Oscars 1991 :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>New York Film Critics Circle Awards 1990 : meilleur acteur pour Robert De Niro</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Éveil_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%89veil_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Oscars 1991 :
 Meilleur film
 Meilleur scénario adapté
-Meilleur acteur pour Robert De Niro[6]
-Golden Globes 1991 : meilleur acteur pour Robin Williams[7]
+Meilleur acteur pour Robert De Niro
+Golden Globes 1991 : meilleur acteur pour Robin Williams
 Awards of the Japanese Academy 1992 : meilleur film étranger
 Grammy Awards 1992 : meilleure bande originale de film</t>
         </is>
